--- a/- PCB -/SUMEC SMD-V2/bom/Complete BOM.xlsx
+++ b/- PCB -/SUMEC SMD-V2/bom/Complete BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\GitHub\RoboCop\- PCB -\SUMEC SMD-V2\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85DE970-52C3-408C-BA4A-16E0A9340A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5277ABF2-E808-4B98-9C6C-EC88004F8C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="113">
   <si>
     <t>Id</t>
   </si>
@@ -291,6 +291,87 @@
   </si>
   <si>
     <t>CP_EIA-3216-18_Kemet-A_Pad1.58x1.35mm_HandSolder</t>
+  </si>
+  <si>
+    <t>QRE1113 THT mouser</t>
+  </si>
+  <si>
+    <t>ESD protekce mouser</t>
+  </si>
+  <si>
+    <t>ESP32 S3 WROOM1 mouser</t>
+  </si>
+  <si>
+    <t>B3U-1000P mouser</t>
+  </si>
+  <si>
+    <t>100R</t>
+  </si>
+  <si>
+    <t>10uF, 16V, 1206, tantal, mouser</t>
+  </si>
+  <si>
+    <t>100nF, 50V 0805, ceramic, mouser</t>
+  </si>
+  <si>
+    <t>220nF, 50V, 0805, ceramic mouser</t>
+  </si>
+  <si>
+    <t>22nF, 100V, 0805, ceramic, mouser</t>
+  </si>
+  <si>
+    <t>220R, 0.5W, 0805, mouser</t>
+  </si>
+  <si>
+    <t>0R, 250mW, 1206, mouser</t>
+  </si>
+  <si>
+    <t>15R, 100mW, 0805,mouser</t>
+  </si>
+  <si>
+    <t>10k, 250mW, 0805, mouser</t>
+  </si>
+  <si>
+    <t>100R, 0.5W, 0805, mouser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S-Diode, 2A, 1206, mouser </t>
+  </si>
+  <si>
+    <t>Green LED, 0805, Vf 2V, mouser</t>
+  </si>
+  <si>
+    <t>Molex PicoBlade, 4 Pin, vertical, mouser</t>
+  </si>
+  <si>
+    <t>Molex PicoBlade, 3 Pin, vertical, mouser</t>
+  </si>
+  <si>
+    <t>Molex PicoBlade, 6 Pin, vertical, mouser</t>
+  </si>
+  <si>
+    <t>Molex PicoBlade, 4 Pin, horizontal, mouser</t>
+  </si>
+  <si>
+    <t>USB C mouser</t>
+  </si>
+  <si>
+    <t>LM1084IS-5.0-NOPB, mouser</t>
+  </si>
+  <si>
+    <t>LM1084IS-3.3-NOPB, mouser</t>
+  </si>
+  <si>
+    <t>TSOP382. 38kHz mouser</t>
+  </si>
+  <si>
+    <t>DRV8874.  mouser</t>
+  </si>
+  <si>
+    <t>XT30PW, horizontal, TME</t>
+  </si>
+  <si>
+    <t>SPDT Switch, mouser</t>
   </si>
 </sst>
 </file>
@@ -889,7 +970,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -917,7 +998,6 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -925,6 +1005,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % – Zvýraznění 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1301,10 +1390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1313,14 +1402,14 @@
     <col min="3" max="3" width="9.26953125" customWidth="1"/>
     <col min="4" max="4" width="57.08984375" customWidth="1"/>
     <col min="5" max="5" width="25.453125" customWidth="1"/>
-    <col min="6" max="6" width="30.26953125" customWidth="1"/>
+    <col min="6" max="6" width="35.6328125" customWidth="1"/>
     <col min="7" max="7" width="23.90625" customWidth="1"/>
-    <col min="8" max="8" width="14.54296875" customWidth="1"/>
+    <col min="8" max="8" width="7.26953125" customWidth="1"/>
     <col min="9" max="9" width="29.453125" customWidth="1"/>
     <col min="10" max="10" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1336,14 +1425,17 @@
       <c r="E1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1359,9 +1451,14 @@
       <c r="E2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F2" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1377,8 +1474,14 @@
       <c r="E3" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F3" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1394,9 +1497,14 @@
       <c r="E4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F4" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1412,9 +1520,14 @@
       <c r="E5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F5" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1427,12 +1540,17 @@
       <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="1">
-        <v>100</v>
-      </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1449,9 +1567,12 @@
         <v>10</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G7" s="13"/>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1467,9 +1588,14 @@
       <c r="E8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F8" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1485,9 +1611,14 @@
       <c r="E9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F9" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1503,9 +1634,14 @@
       <c r="E10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F10" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1521,9 +1657,14 @@
       <c r="E11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F11" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1539,9 +1680,14 @@
       <c r="E12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F12" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1557,9 +1703,14 @@
       <c r="E13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F13" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1575,9 +1726,13 @@
       <c r="E14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F14" s="2"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1593,9 +1748,13 @@
       <c r="E15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F15" s="2"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1611,9 +1770,14 @@
       <c r="E16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F16" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1629,9 +1793,14 @@
       <c r="E17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F17" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1641,15 +1810,20 @@
       <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F18" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1665,9 +1839,14 @@
       <c r="E19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F19" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1683,9 +1862,14 @@
       <c r="E20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F20" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1701,9 +1885,14 @@
       <c r="E21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F21" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1719,8 +1908,14 @@
       <c r="E22" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F22" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1736,9 +1931,14 @@
       <c r="E23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F23" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1754,9 +1954,14 @@
       <c r="E24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F24" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1772,9 +1977,14 @@
       <c r="E25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F25" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1790,9 +2000,14 @@
       <c r="E26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F26" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1808,9 +2023,14 @@
       <c r="E27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F27" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1826,9 +2046,14 @@
       <c r="E28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F28" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1844,9 +2069,14 @@
       <c r="E29" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F29" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>74</v>
@@ -1861,9 +2091,12 @@
         <v>12</v>
       </c>
       <c r="F30" s="2"/>
-      <c r="G30" s="14"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G30" s="13"/>
+      <c r="H30" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>71</v>
@@ -1877,9 +2110,14 @@
       <c r="E31" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F31" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H31" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="F32" s="3"/>
     </row>
@@ -1950,6 +2188,34 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F31" r:id="rId1" display="QRE1113 THT" xr:uid="{C7467625-A286-468E-8A7E-1A7A39BDECC1}"/>
+    <hyperlink ref="F23" r:id="rId2" display="ESD protekce" xr:uid="{FB3BE120-E60B-4E64-87B8-658CEE0AACB7}"/>
+    <hyperlink ref="F24" r:id="rId3" display="ESP32 S3 WROOM1" xr:uid="{C2CDD0EF-FB14-4038-9794-A39B66094845}"/>
+    <hyperlink ref="F28" r:id="rId4" xr:uid="{F6DBEFD4-801F-4613-95B3-A24ABBB0EBF1}"/>
+    <hyperlink ref="F3" r:id="rId5" display="0R" xr:uid="{C862754A-C382-43E8-A616-D2AF26643802}"/>
+    <hyperlink ref="F2" r:id="rId6" display="220R mouser" xr:uid="{C43AAB53-D2D0-4329-AD51-D4402ED84441}"/>
+    <hyperlink ref="F4" r:id="rId7" display="15R mouser" xr:uid="{DD575FCC-1415-4330-899B-C70DFF886B11}"/>
+    <hyperlink ref="F6" r:id="rId8" display="100R" xr:uid="{763E5EBB-5DD3-4781-B6D2-9F4C3D8344CC}"/>
+    <hyperlink ref="F5" r:id="rId9" display="10k mouser" xr:uid="{ED2B128C-C1AD-425C-8DC4-6214F339E204}"/>
+    <hyperlink ref="F8" r:id="rId10" display="22nF mouser" xr:uid="{D739E69D-0939-4881-87EE-F4A74F7306B5}"/>
+    <hyperlink ref="F9" r:id="rId11" display="220nF mouser" xr:uid="{5DBB79F1-5CA3-4AE3-A793-20A2F1822BB5}"/>
+    <hyperlink ref="F10" r:id="rId12" display="100nF mouser" xr:uid="{929D84F0-E88E-4810-B009-80FE3FED9A37}"/>
+    <hyperlink ref="F11" r:id="rId13" xr:uid="{371B25F1-527B-4E70-B1F2-2BE6606DACEC}"/>
+    <hyperlink ref="F12" r:id="rId14" display="Green LED, 0805, Vf 2V" xr:uid="{4B5D039B-6EE4-4987-8927-AC8415B1CF2E}"/>
+    <hyperlink ref="F13" r:id="rId15" xr:uid="{7D16F510-0609-4A66-8417-B59F678FC2DE}"/>
+    <hyperlink ref="F16" r:id="rId16" xr:uid="{98A91549-44BB-43DE-82FA-759E9467366D}"/>
+    <hyperlink ref="F17" r:id="rId17" xr:uid="{AD263F34-F035-44E6-BCED-3EBC8E55851A}"/>
+    <hyperlink ref="F19" r:id="rId18" xr:uid="{FFF45319-FF1B-4F72-A21B-36978B113C9B}"/>
+    <hyperlink ref="F18" r:id="rId19" xr:uid="{132DDC0D-5C0A-439E-A3C6-C482F808FDEF}"/>
+    <hyperlink ref="F20" r:id="rId20" display="USB C" xr:uid="{9DCBE1AD-73C2-4CF2-92FF-FAE0BDDC5F23}"/>
+    <hyperlink ref="F22" r:id="rId21" xr:uid="{D071CBD8-5018-4961-9B17-F0BA82B3C326}"/>
+    <hyperlink ref="F21" r:id="rId22" xr:uid="{7A7B8AF4-09CC-41E8-BA13-0E8B4DAA1724}"/>
+    <hyperlink ref="F25" r:id="rId23" display="TSOP382. 38kHz" xr:uid="{37A8138D-E3CB-4172-AF64-8D059EB192A7}"/>
+    <hyperlink ref="F27" r:id="rId24" xr:uid="{019436FF-040E-4EB9-8335-60DF69292558}"/>
+    <hyperlink ref="F26" r:id="rId25" xr:uid="{3DE8E763-2485-4DF4-BCB1-A8CE5F2EC419}"/>
+    <hyperlink ref="F29" r:id="rId26" xr:uid="{B596FF9F-B13C-40B2-A278-6278DE88A519}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/- PCB -/SUMEC SMD-V2/bom/Complete BOM.xlsx
+++ b/- PCB -/SUMEC SMD-V2/bom/Complete BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\GitHub\RoboCop\- PCB -\SUMEC SMD-V2\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5277ABF2-E808-4B98-9C6C-EC88004F8C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049BD25A-512D-4B81-A736-5EE5D3AE445A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -970,7 +970,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1012,6 +1012,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" xfId="42" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1392,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2000,7 +2003,7 @@
       <c r="E26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="17" t="s">
         <v>111</v>
       </c>
       <c r="H26" s="1">
@@ -2063,7 +2066,7 @@
       <c r="C29" s="1">
         <v>1</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="12" t="s">
         <v>47</v>
       </c>
       <c r="E29" s="1" t="s">

--- a/- PCB -/SUMEC SMD-V2/bom/Complete BOM.xlsx
+++ b/- PCB -/SUMEC SMD-V2/bom/Complete BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\GitHub\RoboCop\- PCB -\SUMEC SMD-V2\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049BD25A-512D-4B81-A736-5EE5D3AE445A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A9F268-ED57-4DA1-A3CE-38412A4CC644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="110">
   <si>
     <t>Id</t>
   </si>
@@ -227,9 +227,6 @@
     <t>C1,C18</t>
   </si>
   <si>
-    <t>C2,C19</t>
-  </si>
-  <si>
     <t>220R</t>
   </si>
   <si>
@@ -239,9 +236,6 @@
     <t>10uF</t>
   </si>
   <si>
-    <t>220nF</t>
-  </si>
-  <si>
     <t>22nF</t>
   </si>
   <si>
@@ -278,9 +272,6 @@
     <t>Logo, R2D2</t>
   </si>
   <si>
-    <t>C4,C6,C7,C8,C9,C17</t>
-  </si>
-  <si>
     <t>C3,C5,C10,C11,C12,C13,C14,C15,C16</t>
   </si>
   <si>
@@ -314,9 +305,6 @@
     <t>100nF, 50V 0805, ceramic, mouser</t>
   </si>
   <si>
-    <t>220nF, 50V, 0805, ceramic mouser</t>
-  </si>
-  <si>
     <t>22nF, 100V, 0805, ceramic, mouser</t>
   </si>
   <si>
@@ -372,6 +360,9 @@
   </si>
   <si>
     <t>SPDT Switch, mouser</t>
+  </si>
+  <si>
+    <t>C2,C4,C6,C7,C8,C9,C17,C19</t>
   </si>
 </sst>
 </file>
@@ -1395,8 +1386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1426,13 +1417,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>60</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>3</v>
@@ -1452,10 +1443,10 @@
         <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H2" s="1">
         <v>2</v>
@@ -1472,13 +1463,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
@@ -1501,7 +1492,7 @@
         <v>26</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H4" s="1">
         <v>2</v>
@@ -1512,7 +1503,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -1524,7 +1515,7 @@
         <v>57</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H5" s="1">
         <v>4</v>
@@ -1535,7 +1526,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -1544,10 +1535,10 @@
         <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H6" s="1">
         <v>3</v>
@@ -1558,13 +1549,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -1589,10 +1580,10 @@
         <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H8" s="1">
         <v>2</v>
@@ -1603,22 +1594,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H9" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -1626,22 +1617,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C10" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H10" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -1649,22 +1640,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C11" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="H11" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -1672,22 +1663,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -1695,20 +1686,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>100</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="13"/>
       <c r="H13" s="1">
         <v>1</v>
       </c>
@@ -1718,16 +1708,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="13"/>
@@ -1740,19 +1730,20 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="13"/>
+        <v>56</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="H15" s="1">
         <v>1</v>
       </c>
@@ -1762,22 +1753,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -1785,22 +1776,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C17" s="1">
-        <v>3</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>50</v>
+        <v>1</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H17" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -1808,22 +1799,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>70</v>
+        <v>3</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -1831,22 +1822,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H19" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -1854,19 +1845,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H20" s="1">
         <v>1</v>
@@ -1877,7 +1868,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -1886,10 +1877,10 @@
         <v>17</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H21" s="1">
         <v>1</v>
@@ -1900,19 +1891,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="H22" s="1">
         <v>1</v>
@@ -1923,19 +1914,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>87</v>
+        <v>42</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="H23" s="1">
         <v>1</v>
@@ -1946,19 +1937,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="H24" s="1">
         <v>1</v>
@@ -1969,19 +1960,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>109</v>
+        <v>37</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>107</v>
       </c>
       <c r="H25" s="1">
         <v>1</v>
@@ -1992,22 +1983,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="C26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>111</v>
+        <v>6</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="H26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
@@ -2015,22 +2006,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C27" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="H27" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -2038,22 +2029,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C28" s="1">
-        <v>3</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="H28" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
@@ -2061,64 +2052,48 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>47</v>
+        <v>5</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>112</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="13"/>
       <c r="H29" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
       <c r="B30" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C30" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="13"/>
+        <v>71</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="H30" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="1">
-        <v>3</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H31" s="1">
-        <v>3</v>
-      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
@@ -2192,32 +2167,31 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F31" r:id="rId1" display="QRE1113 THT" xr:uid="{C7467625-A286-468E-8A7E-1A7A39BDECC1}"/>
-    <hyperlink ref="F23" r:id="rId2" display="ESD protekce" xr:uid="{FB3BE120-E60B-4E64-87B8-658CEE0AACB7}"/>
-    <hyperlink ref="F24" r:id="rId3" display="ESP32 S3 WROOM1" xr:uid="{C2CDD0EF-FB14-4038-9794-A39B66094845}"/>
-    <hyperlink ref="F28" r:id="rId4" xr:uid="{F6DBEFD4-801F-4613-95B3-A24ABBB0EBF1}"/>
-    <hyperlink ref="F3" r:id="rId5" display="0R" xr:uid="{C862754A-C382-43E8-A616-D2AF26643802}"/>
-    <hyperlink ref="F2" r:id="rId6" display="220R mouser" xr:uid="{C43AAB53-D2D0-4329-AD51-D4402ED84441}"/>
-    <hyperlink ref="F4" r:id="rId7" display="15R mouser" xr:uid="{DD575FCC-1415-4330-899B-C70DFF886B11}"/>
-    <hyperlink ref="F6" r:id="rId8" display="100R" xr:uid="{763E5EBB-5DD3-4781-B6D2-9F4C3D8344CC}"/>
-    <hyperlink ref="F5" r:id="rId9" display="10k mouser" xr:uid="{ED2B128C-C1AD-425C-8DC4-6214F339E204}"/>
-    <hyperlink ref="F8" r:id="rId10" display="22nF mouser" xr:uid="{D739E69D-0939-4881-87EE-F4A74F7306B5}"/>
-    <hyperlink ref="F9" r:id="rId11" display="220nF mouser" xr:uid="{5DBB79F1-5CA3-4AE3-A793-20A2F1822BB5}"/>
-    <hyperlink ref="F10" r:id="rId12" display="100nF mouser" xr:uid="{929D84F0-E88E-4810-B009-80FE3FED9A37}"/>
-    <hyperlink ref="F11" r:id="rId13" xr:uid="{371B25F1-527B-4E70-B1F2-2BE6606DACEC}"/>
-    <hyperlink ref="F12" r:id="rId14" display="Green LED, 0805, Vf 2V" xr:uid="{4B5D039B-6EE4-4987-8927-AC8415B1CF2E}"/>
-    <hyperlink ref="F13" r:id="rId15" xr:uid="{7D16F510-0609-4A66-8417-B59F678FC2DE}"/>
-    <hyperlink ref="F16" r:id="rId16" xr:uid="{98A91549-44BB-43DE-82FA-759E9467366D}"/>
-    <hyperlink ref="F17" r:id="rId17" xr:uid="{AD263F34-F035-44E6-BCED-3EBC8E55851A}"/>
-    <hyperlink ref="F19" r:id="rId18" xr:uid="{FFF45319-FF1B-4F72-A21B-36978B113C9B}"/>
-    <hyperlink ref="F18" r:id="rId19" xr:uid="{132DDC0D-5C0A-439E-A3C6-C482F808FDEF}"/>
-    <hyperlink ref="F20" r:id="rId20" display="USB C" xr:uid="{9DCBE1AD-73C2-4CF2-92FF-FAE0BDDC5F23}"/>
-    <hyperlink ref="F22" r:id="rId21" xr:uid="{D071CBD8-5018-4961-9B17-F0BA82B3C326}"/>
-    <hyperlink ref="F21" r:id="rId22" xr:uid="{7A7B8AF4-09CC-41E8-BA13-0E8B4DAA1724}"/>
-    <hyperlink ref="F25" r:id="rId23" display="TSOP382. 38kHz" xr:uid="{37A8138D-E3CB-4172-AF64-8D059EB192A7}"/>
-    <hyperlink ref="F27" r:id="rId24" xr:uid="{019436FF-040E-4EB9-8335-60DF69292558}"/>
-    <hyperlink ref="F26" r:id="rId25" xr:uid="{3DE8E763-2485-4DF4-BCB1-A8CE5F2EC419}"/>
-    <hyperlink ref="F29" r:id="rId26" xr:uid="{B596FF9F-B13C-40B2-A278-6278DE88A519}"/>
+    <hyperlink ref="F30" r:id="rId1" display="QRE1113 THT" xr:uid="{C7467625-A286-468E-8A7E-1A7A39BDECC1}"/>
+    <hyperlink ref="F3" r:id="rId2" display="0R" xr:uid="{C862754A-C382-43E8-A616-D2AF26643802}"/>
+    <hyperlink ref="F2" r:id="rId3" display="220R mouser" xr:uid="{C43AAB53-D2D0-4329-AD51-D4402ED84441}"/>
+    <hyperlink ref="F4" r:id="rId4" display="15R mouser" xr:uid="{DD575FCC-1415-4330-899B-C70DFF886B11}"/>
+    <hyperlink ref="F6" r:id="rId5" display="100R" xr:uid="{763E5EBB-5DD3-4781-B6D2-9F4C3D8344CC}"/>
+    <hyperlink ref="F5" r:id="rId6" display="10k mouser" xr:uid="{ED2B128C-C1AD-425C-8DC4-6214F339E204}"/>
+    <hyperlink ref="F8" r:id="rId7" display="22nF mouser" xr:uid="{D739E69D-0939-4881-87EE-F4A74F7306B5}"/>
+    <hyperlink ref="F28" r:id="rId8" xr:uid="{B596FF9F-B13C-40B2-A278-6278DE88A519}"/>
+    <hyperlink ref="F25" r:id="rId9" xr:uid="{3DE8E763-2485-4DF4-BCB1-A8CE5F2EC419}"/>
+    <hyperlink ref="F26" r:id="rId10" xr:uid="{019436FF-040E-4EB9-8335-60DF69292558}"/>
+    <hyperlink ref="F24" r:id="rId11" display="TSOP382. 38kHz" xr:uid="{37A8138D-E3CB-4172-AF64-8D059EB192A7}"/>
+    <hyperlink ref="F20" r:id="rId12" xr:uid="{7A7B8AF4-09CC-41E8-BA13-0E8B4DAA1724}"/>
+    <hyperlink ref="F21" r:id="rId13" xr:uid="{D071CBD8-5018-4961-9B17-F0BA82B3C326}"/>
+    <hyperlink ref="F19" r:id="rId14" display="USB C" xr:uid="{9DCBE1AD-73C2-4CF2-92FF-FAE0BDDC5F23}"/>
+    <hyperlink ref="F17" r:id="rId15" xr:uid="{132DDC0D-5C0A-439E-A3C6-C482F808FDEF}"/>
+    <hyperlink ref="F18" r:id="rId16" xr:uid="{FFF45319-FF1B-4F72-A21B-36978B113C9B}"/>
+    <hyperlink ref="F16" r:id="rId17" xr:uid="{AD263F34-F035-44E6-BCED-3EBC8E55851A}"/>
+    <hyperlink ref="F15" r:id="rId18" xr:uid="{98A91549-44BB-43DE-82FA-759E9467366D}"/>
+    <hyperlink ref="F12" r:id="rId19" xr:uid="{7D16F510-0609-4A66-8417-B59F678FC2DE}"/>
+    <hyperlink ref="F11" r:id="rId20" display="Green LED, 0805, Vf 2V" xr:uid="{4B5D039B-6EE4-4987-8927-AC8415B1CF2E}"/>
+    <hyperlink ref="F10" r:id="rId21" xr:uid="{371B25F1-527B-4E70-B1F2-2BE6606DACEC}"/>
+    <hyperlink ref="F9" r:id="rId22" display="100nF mouser" xr:uid="{929D84F0-E88E-4810-B009-80FE3FED9A37}"/>
+    <hyperlink ref="F27" r:id="rId23" xr:uid="{F6DBEFD4-801F-4613-95B3-A24ABBB0EBF1}"/>
+    <hyperlink ref="F23" r:id="rId24" display="ESP32 S3 WROOM1" xr:uid="{C2CDD0EF-FB14-4038-9794-A39B66094845}"/>
+    <hyperlink ref="F22" r:id="rId25" display="ESD protekce" xr:uid="{FB3BE120-E60B-4E64-87B8-658CEE0AACB7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/- PCB -/SUMEC SMD-V2/bom/Complete BOM.xlsx
+++ b/- PCB -/SUMEC SMD-V2/bom/Complete BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\GitHub\RoboCop\- PCB -\SUMEC SMD-V2\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A9F268-ED57-4DA1-A3CE-38412A4CC644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D40B48-E98B-4868-A49E-9F89D7FFE1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="133">
   <si>
     <t>Id</t>
   </si>
@@ -47,18 +47,12 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>IC2,IC3</t>
-  </si>
-  <si>
     <t>DRV8874</t>
   </si>
   <si>
     <t>DRV8874PWPR</t>
   </si>
   <si>
-    <t>SW1,SW3,SW2</t>
-  </si>
-  <si>
     <t>SW_SPST_B3U-1000P</t>
   </si>
   <si>
@@ -98,9 +92,6 @@
     <t>R_0805_2012Metric_Pad1.20x1.40mm_HandSolder</t>
   </si>
   <si>
-    <t>J5</t>
-  </si>
-  <si>
     <t>USB_Type_C</t>
   </si>
   <si>
@@ -131,24 +122,12 @@
     <t>100nF</t>
   </si>
   <si>
-    <t>J7,J6,J8</t>
-  </si>
-  <si>
     <t>Molex_PicoBlade_53398-0671_1x06-1MP_P1.25mm_Vertical</t>
   </si>
   <si>
     <t>Conn_01x06_Pin</t>
   </si>
   <si>
-    <t>IC1</t>
-  </si>
-  <si>
-    <t>XT30U-M_1x02_P5.0mm_Vertical</t>
-  </si>
-  <si>
-    <t>XT30U-F</t>
-  </si>
-  <si>
     <t>U3</t>
   </si>
   <si>
@@ -173,27 +152,18 @@
     <t>TSOP382xx</t>
   </si>
   <si>
-    <t>SW4</t>
-  </si>
-  <si>
     <t>Custom_SPDT_4.8mm_Switch</t>
   </si>
   <si>
     <t>SW_DPDT_x2</t>
   </si>
   <si>
-    <t>J4,J10,J9</t>
-  </si>
-  <si>
     <t>Molex_PicoBlade_53398-0371_1x03-1MP_P1.25mm_Vertical</t>
   </si>
   <si>
     <t>Conn_01x03_Pin</t>
   </si>
   <si>
-    <t>R4</t>
-  </si>
-  <si>
     <t>0R</t>
   </si>
   <si>
@@ -218,27 +188,12 @@
     <t>Link</t>
   </si>
   <si>
-    <t>R1,R2</t>
-  </si>
-  <si>
-    <t>R5,R6</t>
-  </si>
-  <si>
-    <t>C1,C18</t>
-  </si>
-  <si>
     <t>220R</t>
   </si>
   <si>
-    <t>D1,D2</t>
-  </si>
-  <si>
     <t>10uF</t>
   </si>
   <si>
-    <t>22nF</t>
-  </si>
-  <si>
     <t>Molex_PicoBlade_53261-0471_1x04-1MP_P1.25mm_Horizontal</t>
   </si>
   <si>
@@ -251,9 +206,6 @@
     <t>QRE1113</t>
   </si>
   <si>
-    <t>H1,H3,H2 - H1,H2</t>
-  </si>
-  <si>
     <t>R10 - R3,R1</t>
   </si>
   <si>
@@ -266,18 +218,9 @@
     <t>Reserve</t>
   </si>
   <si>
-    <t>R3,R8</t>
-  </si>
-  <si>
-    <t>Logo, R2D2</t>
-  </si>
-  <si>
     <t>C3,C5,C10,C11,C12,C13,C14,C15,C16</t>
   </si>
   <si>
-    <t>Diode_SMD:D_1206_3216Metric_Pad1.42x1.75mm_HandSolder</t>
-  </si>
-  <si>
     <t>R_1206_3216Metric_Pad1.30x1.75mm_HandSolder</t>
   </si>
   <si>
@@ -363,6 +306,132 @@
   </si>
   <si>
     <t>C2,C4,C6,C7,C8,C9,C17,C19</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>100nF.boot</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>J9</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>10uF.shrp</t>
+  </si>
+  <si>
+    <t>C15,C14</t>
+  </si>
+  <si>
+    <t>10k.mcu</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>100nF.en</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>100nF.mcu</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>J10,J8,J7</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>SW2</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>R21</t>
+  </si>
+  <si>
+    <t>XT30PW-M</t>
+  </si>
+  <si>
+    <t>AMASS_XT30PW-M</t>
+  </si>
+  <si>
+    <t>J11</t>
+  </si>
+  <si>
+    <t>J5,J4,J6</t>
+  </si>
+  <si>
+    <t>C13,C5,C6</t>
+  </si>
+  <si>
+    <t>D2,D1</t>
+  </si>
+  <si>
+    <t>R7,R6</t>
+  </si>
+  <si>
+    <t>D_1206_3216Metric_Pad1.42x1.75mm_HandSolder</t>
+  </si>
+  <si>
+    <t>10uF.hb</t>
+  </si>
+  <si>
+    <t>C9,C10</t>
+  </si>
+  <si>
+    <t>R2,R1</t>
+  </si>
+  <si>
+    <t>10uF.stabl</t>
+  </si>
+  <si>
+    <t>C19,C17,C18,C16</t>
+  </si>
+  <si>
+    <t>100nF.hb</t>
+  </si>
+  <si>
+    <t>C7,C8</t>
+  </si>
+  <si>
+    <t>22nF.hb</t>
+  </si>
+  <si>
+    <t>C3,C4</t>
+  </si>
+  <si>
+    <t>R2D2</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>SW1,SW4,SW3</t>
+  </si>
+  <si>
+    <t>IC1,IC2</t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>H1,H3,H2 - H1, H2</t>
   </si>
 </sst>
 </file>
@@ -1384,18 +1453,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51:F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="35.81640625" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" customWidth="1"/>
+    <col min="3" max="3" width="19.6328125" customWidth="1"/>
     <col min="4" max="4" width="57.08984375" customWidth="1"/>
-    <col min="5" max="5" width="25.453125" customWidth="1"/>
+    <col min="5" max="5" width="55" customWidth="1"/>
     <col min="6" max="6" width="35.6328125" customWidth="1"/>
     <col min="7" max="7" width="23.90625" customWidth="1"/>
     <col min="8" max="8" width="7.26953125" customWidth="1"/>
@@ -1417,13 +1486,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F1" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>76</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>3</v>
@@ -1434,19 +1503,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H2" s="1">
         <v>2</v>
@@ -1457,19 +1526,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
@@ -1480,19 +1549,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="H4" s="1">
         <v>2</v>
@@ -1503,19 +1572,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="H5" s="1">
         <v>4</v>
@@ -1526,19 +1595,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="H6" s="1">
         <v>3</v>
@@ -1549,16 +1618,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="13"/>
@@ -1571,19 +1640,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="H8" s="1">
         <v>2</v>
@@ -1594,19 +1663,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="C9" s="1">
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="H9" s="1">
         <v>8</v>
@@ -1617,19 +1686,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1">
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="H10" s="1">
         <v>9</v>
@@ -1640,19 +1709,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="H11" s="1">
         <v>2</v>
@@ -1663,19 +1732,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="H12" s="1">
         <v>1</v>
@@ -1686,16 +1755,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="13"/>
@@ -1708,16 +1777,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="13"/>
@@ -1730,19 +1799,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>
@@ -1753,19 +1822,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="H16" s="1">
         <v>3</v>
@@ -1776,19 +1845,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="H17" s="1">
         <v>1</v>
@@ -1799,19 +1868,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="H18" s="1">
         <v>3</v>
@@ -1822,19 +1891,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="H19" s="1">
         <v>1</v>
@@ -1845,19 +1914,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="H20" s="1">
         <v>1</v>
@@ -1868,19 +1937,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F21" s="14" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="H21" s="1">
         <v>1</v>
@@ -1891,19 +1960,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="H22" s="1">
         <v>1</v>
@@ -1914,19 +1983,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="H23" s="1">
         <v>1</v>
@@ -1937,19 +2006,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H24" s="1">
         <v>1</v>
@@ -1960,19 +2029,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="H25" s="1">
         <v>1</v>
@@ -1983,19 +2052,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>4</v>
+        <v>130</v>
       </c>
       <c r="C26" s="1">
         <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F26" s="14" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="H26" s="1">
         <v>2</v>
@@ -2006,19 +2075,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="C27" s="1">
         <v>3</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="H27" s="1">
         <v>3</v>
@@ -2029,19 +2098,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="H28" s="1">
         <v>1</v>
@@ -2052,16 +2121,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="C29" s="1">
         <v>5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="13"/>
@@ -2074,19 +2143,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C30" s="1">
         <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="H30" s="1">
         <v>3</v>
@@ -2104,7 +2173,7 @@
       <c r="B33" s="1"/>
       <c r="C33">
         <f>SUM(C2:C32)</f>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -2119,50 +2188,367 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="3"/>
+      <c r="B35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="3"/>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
-      <c r="F37" s="4"/>
+      <c r="B37" s="1">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
+      <c r="B38" s="1">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B39" s="1">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="1">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B40" s="1">
+        <v>5</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="B41" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="B42" s="1">
+        <v>7</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="B43" s="1">
+        <v>8</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="B44" s="1">
+        <v>9</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" s="1">
+        <v>4</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B45" s="1">
+        <v>10</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B46" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B47" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B48" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B49" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B50" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B51" s="1">
+        <v>16</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B52" s="1">
+        <v>17</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B53" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B54" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B55" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B56" s="1">
+        <v>21</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B57" s="1">
+        <v>22</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B58" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B59" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B60" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B61" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B62" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B63" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B64" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B65" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B66" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B67" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B68" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B69" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B70" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B71" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/- PCB -/SUMEC SMD-V2/bom/Complete BOM.xlsx
+++ b/- PCB -/SUMEC SMD-V2/bom/Complete BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\GitHub\RoboCop\- PCB -\SUMEC SMD-V2\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D40B48-E98B-4868-A49E-9F89D7FFE1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8180854-DAF4-4390-9E04-D856B88956B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="112">
   <si>
     <t>Id</t>
   </si>
@@ -209,18 +209,12 @@
     <t>R10 - R3,R1</t>
   </si>
   <si>
-    <t>R7,R9 - R4,R2</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
     <t>Reserve</t>
   </si>
   <si>
-    <t>C3,C5,C10,C11,C12,C13,C14,C15,C16</t>
-  </si>
-  <si>
     <t>R_1206_3216Metric_Pad1.30x1.75mm_HandSolder</t>
   </si>
   <si>
@@ -245,12 +239,6 @@
     <t>10uF, 16V, 1206, tantal, mouser</t>
   </si>
   <si>
-    <t>100nF, 50V 0805, ceramic, mouser</t>
-  </si>
-  <si>
-    <t>22nF, 100V, 0805, ceramic, mouser</t>
-  </si>
-  <si>
     <t>220R, 0.5W, 0805, mouser</t>
   </si>
   <si>
@@ -269,9 +257,6 @@
     <t xml:space="preserve">S-Diode, 2A, 1206, mouser </t>
   </si>
   <si>
-    <t>Green LED, 0805, Vf 2V, mouser</t>
-  </si>
-  <si>
     <t>Molex PicoBlade, 4 Pin, vertical, mouser</t>
   </si>
   <si>
@@ -305,66 +290,18 @@
     <t>SPDT Switch, mouser</t>
   </si>
   <si>
-    <t>C2,C4,C6,C7,C8,C9,C17,C19</t>
-  </si>
-  <si>
-    <t>R10</t>
-  </si>
-  <si>
-    <t>100nF.boot</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
     <t>J9</t>
   </si>
   <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>10uF.shrp</t>
-  </si>
-  <si>
-    <t>C15,C14</t>
-  </si>
-  <si>
-    <t>10k.mcu</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>100nF.en</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
     <t>R5</t>
   </si>
   <si>
-    <t>100nF.mcu</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
     <t>J10,J8,J7</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
     <t>SW2</t>
   </si>
   <si>
-    <t>Logo</t>
-  </si>
-  <si>
-    <t>R21</t>
-  </si>
-  <si>
     <t>XT30PW-M</t>
   </si>
   <si>
@@ -377,61 +314,61 @@
     <t>J5,J4,J6</t>
   </si>
   <si>
-    <t>C13,C5,C6</t>
-  </si>
-  <si>
-    <t>D2,D1</t>
-  </si>
-  <si>
     <t>R7,R6</t>
   </si>
   <si>
     <t>D_1206_3216Metric_Pad1.42x1.75mm_HandSolder</t>
   </si>
   <si>
-    <t>10uF.hb</t>
-  </si>
-  <si>
-    <t>C9,C10</t>
-  </si>
-  <si>
     <t>R2,R1</t>
   </si>
   <si>
-    <t>10uF.stabl</t>
-  </si>
-  <si>
-    <t>C19,C17,C18,C16</t>
-  </si>
-  <si>
-    <t>100nF.hb</t>
-  </si>
-  <si>
-    <t>C7,C8</t>
-  </si>
-  <si>
     <t>22nF.hb</t>
   </si>
   <si>
     <t>C3,C4</t>
   </si>
   <si>
-    <t>R2D2</t>
-  </si>
-  <si>
-    <t>R20</t>
-  </si>
-  <si>
     <t>SW1,SW4,SW3</t>
   </si>
   <si>
     <t>IC1,IC2</t>
   </si>
   <si>
-    <t>Designation</t>
-  </si>
-  <si>
     <t>H1,H3,H2 - H1, H2</t>
+  </si>
+  <si>
+    <t>C1,C9,C10,C15,C14,C19,C17,C18,C16</t>
+  </si>
+  <si>
+    <t>R20, R21</t>
+  </si>
+  <si>
+    <t>R2D2, Logo</t>
+  </si>
+  <si>
+    <t>C2,C13,C5,C6,C7,C8,C11,C12</t>
+  </si>
+  <si>
+    <t>R9,R8 - R4,R2</t>
+  </si>
+  <si>
+    <t>22nF, 50V, 0805, ceramic, mouser, X7R</t>
+  </si>
+  <si>
+    <t>100nF, 16V, 0805, ceramic, mouser X7R</t>
+  </si>
+  <si>
+    <t>D2,D1, D4</t>
+  </si>
+  <si>
+    <t>Resitor LED, LED na vbatt,</t>
+  </si>
+  <si>
+    <t>Side sensor</t>
+  </si>
+  <si>
+    <t>Red LED, 20mA 1.9V, 0805, mouser</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +967,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1076,6 +1013,10 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="39" borderId="0" xfId="42" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1453,10 +1394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51:F51"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1468,11 +1409,11 @@
     <col min="6" max="6" width="35.6328125" customWidth="1"/>
     <col min="7" max="7" width="23.90625" customWidth="1"/>
     <col min="8" max="8" width="7.26953125" customWidth="1"/>
-    <col min="9" max="9" width="29.453125" customWidth="1"/>
-    <col min="10" max="10" width="20.453125" customWidth="1"/>
+    <col min="9" max="9" width="34.54296875" customWidth="1"/>
+    <col min="10" max="10" width="36.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1486,24 +1427,24 @@
         <v>2</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>50</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -1515,41 +1456,41 @@
         <v>51</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H2" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -1561,18 +1502,18 @@
         <v>23</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -1584,13 +1525,13 @@
         <v>47</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H5" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1604,27 +1545,27 @@
         <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
@@ -1635,12 +1576,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -1649,21 +1590,22 @@
         <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="H8" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="C9" s="1">
         <v>8</v>
@@ -1675,44 +1617,44 @@
         <v>28</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="H9" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="C10" s="1">
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H10" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>24</v>
@@ -1720,124 +1662,91 @@
       <c r="E11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>78</v>
-      </c>
+      <c r="F11" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" s="18"/>
       <c r="H11" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="13"/>
+        <v>22</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="H14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>79</v>
-      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="13"/>
       <c r="H15" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>80</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="13"/>
       <c r="H16" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -1845,19 +1754,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>53</v>
+      <c r="D17" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H17" s="1">
         <v>1</v>
@@ -1868,19 +1777,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H18" s="1">
         <v>3</v>
@@ -1891,19 +1800,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>19</v>
+      <c r="D19" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H19" s="1">
         <v>1</v>
@@ -1914,22 +1823,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="C20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -1937,19 +1846,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H21" s="1">
         <v>1</v>
@@ -1960,19 +1869,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="H22" s="1">
         <v>1</v>
@@ -1983,19 +1892,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>66</v>
+        <v>16</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>79</v>
       </c>
       <c r="H23" s="1">
         <v>1</v>
@@ -2006,19 +1915,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>86</v>
+        <v>33</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="H24" s="1">
         <v>1</v>
@@ -2029,19 +1938,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>88</v>
+        <v>35</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="H25" s="1">
         <v>1</v>
@@ -2052,22 +1961,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="C26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>87</v>
+        <v>38</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="H26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
@@ -2075,22 +1984,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="C27" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>67</v>
+        <v>89</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="H27" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -2098,22 +2007,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
@@ -2121,21 +2030,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="C29" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="H29" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
@@ -2143,405 +2053,247 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="1">
+        <v>5</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B32" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C32" s="1">
         <v>3</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H30" s="1">
+      <c r="F32" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="1"/>
-      <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33">
-        <f>SUM(C2:C32)</f>
-        <v>66</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="4"/>
+      <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
-      <c r="B35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="B35" s="1"/>
+      <c r="C35">
+        <f>SUM(C2:C34)</f>
+        <v>68</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
-      <c r="B36" s="1">
-        <v>1</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" s="1">
-        <v>1</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="B36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
-      <c r="B37" s="1">
-        <v>2</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
-      <c r="B38" s="1">
-        <v>3</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D38" s="1">
-        <v>1</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="B38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B39" s="1">
-        <v>4</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D39" s="1">
-        <v>3</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="B39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B40" s="1">
-        <v>5</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D40" s="1">
-        <v>2</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="B40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B41" s="1">
-        <v>6</v>
-      </c>
+      <c r="B41" s="1"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B42" s="1">
-        <v>7</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D42" s="1">
-        <v>2</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="B42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B43" s="1">
-        <v>8</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D43" s="1">
-        <v>1</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B44" s="1">
-        <v>9</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D44" s="1">
-        <v>4</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>121</v>
-      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B45" s="1">
-        <v>10</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D45" s="1">
-        <v>2</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>118</v>
-      </c>
+      <c r="B45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B46" s="1">
-        <v>11</v>
-      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B47" s="1">
-        <v>12</v>
-      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B48" s="1">
-        <v>13</v>
-      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B49" s="1">
-        <v>14</v>
-      </c>
+      <c r="B49" s="1"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B50" s="1">
-        <v>15</v>
-      </c>
+      <c r="B50" s="1"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B51" s="1">
-        <v>16</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D51" s="1">
-        <v>1</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F51" s="1">
-        <v>100</v>
-      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B52" s="1">
-        <v>17</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D52" s="1">
-        <v>1</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B53" s="1">
-        <v>18</v>
-      </c>
+      <c r="B53" s="1"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B54" s="1">
-        <v>19</v>
-      </c>
+      <c r="B54" s="1"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B55" s="1">
-        <v>20</v>
-      </c>
+      <c r="B55" s="1"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B56" s="1">
-        <v>21</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D56" s="1">
-        <v>1</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B57" s="1">
-        <v>22</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D57" s="1">
-        <v>1</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B58" s="1">
-        <v>23</v>
-      </c>
+      <c r="B58" s="1"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B59" s="1">
-        <v>24</v>
-      </c>
+      <c r="B59" s="1"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B60" s="1">
-        <v>25</v>
-      </c>
+      <c r="B60" s="1"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B61" s="1">
-        <v>26</v>
-      </c>
+      <c r="B61" s="1"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B62" s="1">
-        <v>27</v>
-      </c>
+      <c r="B62" s="1"/>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B63" s="1">
-        <v>28</v>
-      </c>
+      <c r="B63" s="1"/>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B64" s="1">
-        <v>29</v>
-      </c>
+      <c r="B64" s="1"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B65" s="1">
-        <v>30</v>
-      </c>
+      <c r="B65" s="1"/>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B66" s="1">
-        <v>31</v>
-      </c>
+      <c r="B66" s="1"/>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B67" s="1">
-        <v>32</v>
-      </c>
+      <c r="B67" s="1"/>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B68" s="1">
-        <v>33</v>
-      </c>
+      <c r="B68" s="1"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B69" s="1">
-        <v>34</v>
-      </c>
+      <c r="B69" s="1"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B70" s="1">
-        <v>35</v>
-      </c>
+      <c r="B70" s="1"/>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B71" s="1">
-        <v>36</v>
-      </c>
+      <c r="B71" s="1"/>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B72" s="1"/>
@@ -2553,31 +2305,31 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F30" r:id="rId1" display="QRE1113 THT" xr:uid="{C7467625-A286-468E-8A7E-1A7A39BDECC1}"/>
+    <hyperlink ref="F32" r:id="rId1" display="QRE1113 THT" xr:uid="{C7467625-A286-468E-8A7E-1A7A39BDECC1}"/>
     <hyperlink ref="F3" r:id="rId2" display="0R" xr:uid="{C862754A-C382-43E8-A616-D2AF26643802}"/>
     <hyperlink ref="F2" r:id="rId3" display="220R mouser" xr:uid="{C43AAB53-D2D0-4329-AD51-D4402ED84441}"/>
     <hyperlink ref="F4" r:id="rId4" display="15R mouser" xr:uid="{DD575FCC-1415-4330-899B-C70DFF886B11}"/>
     <hyperlink ref="F6" r:id="rId5" display="100R" xr:uid="{763E5EBB-5DD3-4781-B6D2-9F4C3D8344CC}"/>
     <hyperlink ref="F5" r:id="rId6" display="10k mouser" xr:uid="{ED2B128C-C1AD-425C-8DC4-6214F339E204}"/>
-    <hyperlink ref="F8" r:id="rId7" display="22nF mouser" xr:uid="{D739E69D-0939-4881-87EE-F4A74F7306B5}"/>
-    <hyperlink ref="F28" r:id="rId8" xr:uid="{B596FF9F-B13C-40B2-A278-6278DE88A519}"/>
-    <hyperlink ref="F25" r:id="rId9" xr:uid="{3DE8E763-2485-4DF4-BCB1-A8CE5F2EC419}"/>
-    <hyperlink ref="F26" r:id="rId10" xr:uid="{019436FF-040E-4EB9-8335-60DF69292558}"/>
-    <hyperlink ref="F24" r:id="rId11" display="TSOP382. 38kHz" xr:uid="{37A8138D-E3CB-4172-AF64-8D059EB192A7}"/>
-    <hyperlink ref="F20" r:id="rId12" xr:uid="{7A7B8AF4-09CC-41E8-BA13-0E8B4DAA1724}"/>
-    <hyperlink ref="F21" r:id="rId13" xr:uid="{D071CBD8-5018-4961-9B17-F0BA82B3C326}"/>
-    <hyperlink ref="F19" r:id="rId14" display="USB C" xr:uid="{9DCBE1AD-73C2-4CF2-92FF-FAE0BDDC5F23}"/>
-    <hyperlink ref="F17" r:id="rId15" xr:uid="{132DDC0D-5C0A-439E-A3C6-C482F808FDEF}"/>
-    <hyperlink ref="F18" r:id="rId16" xr:uid="{FFF45319-FF1B-4F72-A21B-36978B113C9B}"/>
-    <hyperlink ref="F16" r:id="rId17" xr:uid="{AD263F34-F035-44E6-BCED-3EBC8E55851A}"/>
-    <hyperlink ref="F15" r:id="rId18" xr:uid="{98A91549-44BB-43DE-82FA-759E9467366D}"/>
-    <hyperlink ref="F12" r:id="rId19" xr:uid="{7D16F510-0609-4A66-8417-B59F678FC2DE}"/>
-    <hyperlink ref="F11" r:id="rId20" display="Green LED, 0805, Vf 2V" xr:uid="{4B5D039B-6EE4-4987-8927-AC8415B1CF2E}"/>
-    <hyperlink ref="F10" r:id="rId21" xr:uid="{371B25F1-527B-4E70-B1F2-2BE6606DACEC}"/>
-    <hyperlink ref="F9" r:id="rId22" display="100nF mouser" xr:uid="{929D84F0-E88E-4810-B009-80FE3FED9A37}"/>
-    <hyperlink ref="F27" r:id="rId23" xr:uid="{F6DBEFD4-801F-4613-95B3-A24ABBB0EBF1}"/>
-    <hyperlink ref="F23" r:id="rId24" display="ESP32 S3 WROOM1" xr:uid="{C2CDD0EF-FB14-4038-9794-A39B66094845}"/>
-    <hyperlink ref="F22" r:id="rId25" display="ESD protekce" xr:uid="{FB3BE120-E60B-4E64-87B8-658CEE0AACB7}"/>
+    <hyperlink ref="F30" r:id="rId7" xr:uid="{B596FF9F-B13C-40B2-A278-6278DE88A519}"/>
+    <hyperlink ref="F27" r:id="rId8" xr:uid="{3DE8E763-2485-4DF4-BCB1-A8CE5F2EC419}"/>
+    <hyperlink ref="F28" r:id="rId9" xr:uid="{019436FF-040E-4EB9-8335-60DF69292558}"/>
+    <hyperlink ref="F26" r:id="rId10" display="TSOP382. 38kHz" xr:uid="{37A8138D-E3CB-4172-AF64-8D059EB192A7}"/>
+    <hyperlink ref="F22" r:id="rId11" xr:uid="{7A7B8AF4-09CC-41E8-BA13-0E8B4DAA1724}"/>
+    <hyperlink ref="F23" r:id="rId12" xr:uid="{D071CBD8-5018-4961-9B17-F0BA82B3C326}"/>
+    <hyperlink ref="F21" r:id="rId13" display="USB C" xr:uid="{9DCBE1AD-73C2-4CF2-92FF-FAE0BDDC5F23}"/>
+    <hyperlink ref="F19" r:id="rId14" xr:uid="{132DDC0D-5C0A-439E-A3C6-C482F808FDEF}"/>
+    <hyperlink ref="F20" r:id="rId15" xr:uid="{FFF45319-FF1B-4F72-A21B-36978B113C9B}"/>
+    <hyperlink ref="F18" r:id="rId16" xr:uid="{AD263F34-F035-44E6-BCED-3EBC8E55851A}"/>
+    <hyperlink ref="F17" r:id="rId17" xr:uid="{98A91549-44BB-43DE-82FA-759E9467366D}"/>
+    <hyperlink ref="F14" r:id="rId18" xr:uid="{7D16F510-0609-4A66-8417-B59F678FC2DE}"/>
+    <hyperlink ref="F10" r:id="rId19" xr:uid="{371B25F1-527B-4E70-B1F2-2BE6606DACEC}"/>
+    <hyperlink ref="F9" r:id="rId20" xr:uid="{929D84F0-E88E-4810-B009-80FE3FED9A37}"/>
+    <hyperlink ref="F29" r:id="rId21" xr:uid="{F6DBEFD4-801F-4613-95B3-A24ABBB0EBF1}"/>
+    <hyperlink ref="F25" r:id="rId22" display="ESP32 S3 WROOM1" xr:uid="{C2CDD0EF-FB14-4038-9794-A39B66094845}"/>
+    <hyperlink ref="F24" r:id="rId23" display="ESD protekce" xr:uid="{FB3BE120-E60B-4E64-87B8-658CEE0AACB7}"/>
+    <hyperlink ref="F8" r:id="rId24" display="22nF, 50V, 0805, mouser, X7R" xr:uid="{EF920451-0FF1-4E22-859F-6B07FF0D02EB}"/>
+    <hyperlink ref="F11" r:id="rId25" xr:uid="{5E8D4022-209B-4A78-A839-B160D615305B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/- PCB -/SUMEC SMD-V2/bom/Complete BOM.xlsx
+++ b/- PCB -/SUMEC SMD-V2/bom/Complete BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\GitHub\RoboCop\- PCB -\SUMEC SMD-V2\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8180854-DAF4-4390-9E04-D856B88956B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CCE547-60ED-4C68-B9E3-A90199CF65FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="118">
   <si>
     <t>Id</t>
   </si>
@@ -188,9 +188,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>220R</t>
-  </si>
-  <si>
     <t>10uF</t>
   </si>
   <si>
@@ -206,9 +203,6 @@
     <t>QRE1113</t>
   </si>
   <si>
-    <t>R10 - R3,R1</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
@@ -320,9 +314,6 @@
     <t>D_1206_3216Metric_Pad1.42x1.75mm_HandSolder</t>
   </si>
   <si>
-    <t>R2,R1</t>
-  </si>
-  <si>
     <t>22nF.hb</t>
   </si>
   <si>
@@ -359,16 +350,43 @@
     <t>100nF, 16V, 0805, ceramic, mouser X7R</t>
   </si>
   <si>
-    <t>D2,D1, D4</t>
-  </si>
-  <si>
-    <t>Resitor LED, LED na vbatt,</t>
-  </si>
-  <si>
-    <t>Side sensor</t>
-  </si>
-  <si>
     <t>Red LED, 20mA 1.9V, 0805, mouser</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>Yellow LED, 20mA, 1.9V, 0805, mouser</t>
+  </si>
+  <si>
+    <t>Green LED, 20mA, 1.9V, mouser</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R1,R2,R10 - R3,R1</t>
+  </si>
+  <si>
+    <t>560R, 500mW, 0805, mouser</t>
+  </si>
+  <si>
+    <t>560R</t>
+  </si>
+  <si>
+    <t>SHARP Digital, Side senzor, Botland</t>
+  </si>
+  <si>
+    <t>Sharp GP2Y0D810Z0F</t>
+  </si>
+  <si>
+    <t>CONNECTOR 1x3</t>
   </si>
 </sst>
 </file>
@@ -1396,8 +1414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A30"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="77" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1427,13 +1445,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>50</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>3</v>
@@ -1444,22 +1462,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="H2" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -1467,19 +1488,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
@@ -1490,7 +1511,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -1502,7 +1523,7 @@
         <v>23</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H4" s="1">
         <v>2</v>
@@ -1513,7 +1534,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -1525,7 +1546,7 @@
         <v>47</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H5" s="1">
         <v>4</v>
@@ -1536,19 +1557,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="C6" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H6" s="1">
         <v>3</v>
@@ -1559,13 +1580,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
@@ -1581,7 +1602,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -1590,10 +1611,10 @@
         <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H8" s="1">
         <v>2</v>
@@ -1605,7 +1626,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C9" s="1">
         <v>8</v>
@@ -1617,7 +1638,7 @@
         <v>28</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H9" s="1">
         <v>8</v>
@@ -1628,19 +1649,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C10" s="1">
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H10" s="1">
         <v>9</v>
@@ -1651,10 +1672,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>24</v>
@@ -1663,11 +1684,11 @@
         <v>25</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
@@ -1676,11 +1697,47 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
+      <c r="B13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
@@ -1693,13 +1750,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
@@ -1754,7 +1811,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -1766,7 +1823,7 @@
         <v>46</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H17" s="1">
         <v>1</v>
@@ -1777,7 +1834,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
@@ -1789,7 +1846,7 @@
         <v>42</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H18" s="1">
         <v>3</v>
@@ -1806,13 +1863,13 @@
         <v>1</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H19" s="1">
         <v>1</v>
@@ -1823,7 +1880,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
@@ -1835,7 +1892,7 @@
         <v>30</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H20" s="1">
         <v>3</v>
@@ -1858,7 +1915,7 @@
         <v>20</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H21" s="1">
         <v>1</v>
@@ -1881,7 +1938,7 @@
         <v>27</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H22" s="1">
         <v>1</v>
@@ -1904,7 +1961,7 @@
         <v>16</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H23" s="1">
         <v>1</v>
@@ -1927,7 +1984,7 @@
         <v>33</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H24" s="1">
         <v>1</v>
@@ -1950,7 +2007,7 @@
         <v>35</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H25" s="1">
         <v>1</v>
@@ -1973,7 +2030,7 @@
         <v>38</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H26" s="1">
         <v>1</v>
@@ -1984,19 +2041,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H27" s="1">
         <v>1</v>
@@ -2007,7 +2064,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C28" s="1">
         <v>2</v>
@@ -2019,7 +2076,7 @@
         <v>5</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H28" s="1">
         <v>2</v>
@@ -2030,7 +2087,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C29" s="1">
         <v>3</v>
@@ -2042,7 +2099,7 @@
         <v>7</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H29" s="1">
         <v>3</v>
@@ -2053,7 +2110,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -2065,15 +2122,18 @@
         <v>40</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H30" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
       <c r="B31" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C31" s="1">
         <v>5</v>
@@ -2091,20 +2151,23 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
       <c r="B32" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32" s="1">
         <v>3</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="F32" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H32" s="1">
         <v>3</v>
@@ -2112,6 +2175,18 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
+      <c r="C33" s="1">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
@@ -2122,7 +2197,7 @@
       <c r="B35" s="1"/>
       <c r="C35">
         <f>SUM(C2:C34)</f>
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -2141,18 +2216,14 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B39" s="1"/>
@@ -2307,7 +2378,7 @@
   <hyperlinks>
     <hyperlink ref="F32" r:id="rId1" display="QRE1113 THT" xr:uid="{C7467625-A286-468E-8A7E-1A7A39BDECC1}"/>
     <hyperlink ref="F3" r:id="rId2" display="0R" xr:uid="{C862754A-C382-43E8-A616-D2AF26643802}"/>
-    <hyperlink ref="F2" r:id="rId3" display="220R mouser" xr:uid="{C43AAB53-D2D0-4329-AD51-D4402ED84441}"/>
+    <hyperlink ref="I2" r:id="rId3" display="220R mouser" xr:uid="{C43AAB53-D2D0-4329-AD51-D4402ED84441}"/>
     <hyperlink ref="F4" r:id="rId4" display="15R mouser" xr:uid="{DD575FCC-1415-4330-899B-C70DFF886B11}"/>
     <hyperlink ref="F6" r:id="rId5" display="100R" xr:uid="{763E5EBB-5DD3-4781-B6D2-9F4C3D8344CC}"/>
     <hyperlink ref="F5" r:id="rId6" display="10k mouser" xr:uid="{ED2B128C-C1AD-425C-8DC4-6214F339E204}"/>
@@ -2330,6 +2401,10 @@
     <hyperlink ref="F24" r:id="rId23" display="ESD protekce" xr:uid="{FB3BE120-E60B-4E64-87B8-658CEE0AACB7}"/>
     <hyperlink ref="F8" r:id="rId24" display="22nF, 50V, 0805, mouser, X7R" xr:uid="{EF920451-0FF1-4E22-859F-6B07FF0D02EB}"/>
     <hyperlink ref="F11" r:id="rId25" xr:uid="{5E8D4022-209B-4A78-A839-B160D615305B}"/>
+    <hyperlink ref="F12" r:id="rId26" xr:uid="{1DB20B2F-C9D6-4E69-A2DD-D42E31B3A79C}"/>
+    <hyperlink ref="F13" r:id="rId27" xr:uid="{5954B20F-A14D-45B1-9EAC-29E97102D58C}"/>
+    <hyperlink ref="F2" r:id="rId28" xr:uid="{F272AEEB-1F6E-41CC-B9EE-A0FD0E5C470F}"/>
+    <hyperlink ref="F33" r:id="rId29" xr:uid="{6ABF2726-A5C3-4787-BAF7-20B3D754FCE4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/- PCB -/SUMEC SMD-V2/bom/Complete BOM.xlsx
+++ b/- PCB -/SUMEC SMD-V2/bom/Complete BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\GitHub\RoboCop\- PCB -\SUMEC SMD-V2\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CCE547-60ED-4C68-B9E3-A90199CF65FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6BF3F5-BAC2-4523-BAD9-E88936B80401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="119">
   <si>
     <t>Id</t>
   </si>
@@ -387,6 +387,9 @@
   </si>
   <si>
     <t>CONNECTOR 1x3</t>
+  </si>
+  <si>
+    <t>15 + 4 pujceno</t>
   </si>
 </sst>
 </file>
@@ -1414,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="77" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="77" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2168,6 +2171,9 @@
       </c>
       <c r="F32" s="14" t="s">
         <v>60</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="H32" s="1">
         <v>3</v>

--- a/- PCB -/SUMEC SMD-V2/bom/Complete BOM.xlsx
+++ b/- PCB -/SUMEC SMD-V2/bom/Complete BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\GitHub\RoboCop\- PCB -\SUMEC SMD-V2\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6BF3F5-BAC2-4523-BAD9-E88936B80401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF94E023-851E-429B-9AE8-7B4074DBAF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1022,7 +1022,6 @@
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1038,6 +1037,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1417,8 +1419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="77" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="77" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1450,7 +1452,7 @@
       <c r="E1" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>50</v>
       </c>
       <c r="G1" s="11" t="s">
@@ -1476,13 +1478,14 @@
       <c r="E2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>113</v>
       </c>
+      <c r="G2" s="1"/>
       <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1502,8 +1505,11 @@
       <c r="E3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>67</v>
+      </c>
+      <c r="G3" s="1">
+        <v>14</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
@@ -1525,9 +1531,10 @@
       <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>68</v>
       </c>
+      <c r="G4" s="1"/>
       <c r="H4" s="1">
         <v>2</v>
       </c>
@@ -1548,9 +1555,10 @@
       <c r="E5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>69</v>
       </c>
+      <c r="G5" s="1"/>
       <c r="H5" s="1">
         <v>4</v>
       </c>
@@ -1571,9 +1579,10 @@
       <c r="E6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>70</v>
       </c>
+      <c r="G6" s="1"/>
       <c r="H6" s="1">
         <v>3</v>
       </c>
@@ -1595,7 +1604,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="13"/>
+      <c r="G7" s="2"/>
       <c r="H7" s="1">
         <v>2</v>
       </c>
@@ -1616,13 +1625,14 @@
       <c r="E8" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>103</v>
       </c>
+      <c r="G8" s="1"/>
       <c r="H8" s="1">
         <v>2</v>
       </c>
-      <c r="I8" s="14"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
@@ -1640,9 +1650,10 @@
       <c r="E9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>104</v>
       </c>
+      <c r="G9" s="1"/>
       <c r="H9" s="1">
         <v>8</v>
       </c>
@@ -1663,9 +1674,10 @@
       <c r="E10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>65</v>
       </c>
+      <c r="G10" s="1"/>
       <c r="H10" s="1">
         <v>9</v>
       </c>
@@ -1686,15 +1698,15 @@
       <c r="E11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="G11" s="18"/>
+      <c r="G11" s="13"/>
       <c r="H11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
@@ -1712,9 +1724,10 @@
       <c r="E12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>109</v>
       </c>
+      <c r="G12" s="1"/>
       <c r="H12" s="1">
         <v>1</v>
       </c>
@@ -1735,9 +1748,10 @@
       <c r="E13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>110</v>
       </c>
+      <c r="G13" s="1"/>
       <c r="H13" s="1">
         <v>1</v>
       </c>
@@ -1758,8 +1772,11 @@
       <c r="E14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="13" t="s">
         <v>71</v>
+      </c>
+      <c r="G14" s="1">
+        <v>6</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
@@ -1782,7 +1799,7 @@
         <v>46</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="13"/>
+      <c r="G15" s="2"/>
       <c r="H15" s="1">
         <v>1</v>
       </c>
@@ -1804,7 +1821,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="13"/>
+      <c r="G16" s="2"/>
       <c r="H16" s="1">
         <v>1</v>
       </c>
@@ -1825,9 +1842,10 @@
       <c r="E17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="13" t="s">
         <v>72</v>
       </c>
+      <c r="G17" s="1"/>
       <c r="H17" s="1">
         <v>1</v>
       </c>
@@ -1848,9 +1866,10 @@
       <c r="E18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="13" t="s">
         <v>73</v>
       </c>
+      <c r="G18" s="1"/>
       <c r="H18" s="1">
         <v>3</v>
       </c>
@@ -1871,9 +1890,10 @@
       <c r="E19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="13" t="s">
         <v>75</v>
       </c>
+      <c r="G19" s="1"/>
       <c r="H19" s="1">
         <v>1</v>
       </c>
@@ -1894,9 +1914,10 @@
       <c r="E20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="13" t="s">
         <v>74</v>
       </c>
+      <c r="G20" s="1"/>
       <c r="H20" s="1">
         <v>3</v>
       </c>
@@ -1917,9 +1938,10 @@
       <c r="E21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="13" t="s">
         <v>76</v>
       </c>
+      <c r="G21" s="1"/>
       <c r="H21" s="1">
         <v>1</v>
       </c>
@@ -1940,9 +1962,10 @@
       <c r="E22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="13" t="s">
         <v>78</v>
       </c>
+      <c r="G22" s="1"/>
       <c r="H22" s="1">
         <v>1</v>
       </c>
@@ -1963,9 +1986,10 @@
       <c r="E23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="13" t="s">
         <v>77</v>
       </c>
+      <c r="G23" s="1"/>
       <c r="H23" s="1">
         <v>1</v>
       </c>
@@ -1986,8 +2010,11 @@
       <c r="E24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="13" t="s">
         <v>61</v>
+      </c>
+      <c r="G24" s="1">
+        <v>8</v>
       </c>
       <c r="H24" s="1">
         <v>1</v>
@@ -2009,9 +2036,10 @@
       <c r="E25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="14" t="s">
         <v>62</v>
       </c>
+      <c r="G25" s="1"/>
       <c r="H25" s="1">
         <v>1</v>
       </c>
@@ -2032,9 +2060,10 @@
       <c r="E26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="14" t="s">
         <v>79</v>
       </c>
+      <c r="G26" s="1"/>
       <c r="H26" s="1">
         <v>1</v>
       </c>
@@ -2055,9 +2084,10 @@
       <c r="E27" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="16" t="s">
         <v>81</v>
       </c>
+      <c r="G27" s="1"/>
       <c r="H27" s="1">
         <v>1</v>
       </c>
@@ -2078,9 +2108,10 @@
       <c r="E28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="13" t="s">
         <v>80</v>
       </c>
+      <c r="G28" s="1"/>
       <c r="H28" s="1">
         <v>2</v>
       </c>
@@ -2101,8 +2132,11 @@
       <c r="E29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="13" t="s">
         <v>63</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2</v>
       </c>
       <c r="H29" s="1">
         <v>3</v>
@@ -2124,9 +2158,10 @@
       <c r="E30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F30" s="13" t="s">
         <v>82</v>
       </c>
+      <c r="G30" s="1"/>
       <c r="H30" s="1">
         <v>1</v>
       </c>
@@ -2148,7 +2183,7 @@
         <v>10</v>
       </c>
       <c r="F31" s="2"/>
-      <c r="G31" s="13"/>
+      <c r="G31" s="2"/>
       <c r="H31" s="1">
         <v>5</v>
       </c>
@@ -2169,7 +2204,7 @@
       <c r="E32" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="13" t="s">
         <v>60</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -2179,7 +2214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="C33" s="1">
         <v>2</v>
@@ -2190,15 +2225,16 @@
       <c r="E33" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="F33" s="17" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G33" s="19"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35">
@@ -2209,14 +2245,14 @@
       <c r="E35" s="1"/>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2224,66 +2260,66 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>

--- a/- PCB -/SUMEC SMD-V2/bom/Complete BOM.xlsx
+++ b/- PCB -/SUMEC SMD-V2/bom/Complete BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\GitHub\RoboCop\- PCB -\SUMEC SMD-V2\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF94E023-851E-429B-9AE8-7B4074DBAF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865C17A7-7A47-468C-AAB0-0985D24521F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sumecBOM" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="118">
   <si>
     <t>Id</t>
   </si>
@@ -231,9 +231,6 @@
   </si>
   <si>
     <t>10uF, 16V, 1206, tantal, mouser</t>
-  </si>
-  <si>
-    <t>220R, 0.5W, 0805, mouser</t>
   </si>
   <si>
     <t>0R, 250mW, 1206, mouser</t>
@@ -988,7 +985,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1040,6 +1037,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1419,8 +1419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="77" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="E16" zoomScale="77" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1467,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -1476,25 +1476,23 @@
         <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>66</v>
-      </c>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -1506,7 +1504,7 @@
         <v>43</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G3" s="1">
         <v>14</v>
@@ -1520,7 +1518,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -1532,7 +1530,7 @@
         <v>23</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1">
@@ -1544,7 +1542,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -1556,7 +1554,7 @@
         <v>47</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1">
@@ -1568,7 +1566,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -1580,11 +1578,11 @@
         <v>64</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -1592,13 +1590,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
@@ -1614,7 +1612,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -1623,10 +1621,10 @@
         <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1">
@@ -1639,7 +1637,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="1">
         <v>8</v>
@@ -1651,7 +1649,7 @@
         <v>28</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1">
@@ -1663,7 +1661,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10" s="1">
         <v>9</v>
@@ -1687,7 +1685,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -1699,7 +1697,7 @@
         <v>25</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="1">
@@ -1713,7 +1711,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -1725,7 +1723,7 @@
         <v>25</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1">
@@ -1737,7 +1735,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -1749,7 +1747,7 @@
         <v>25</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1">
@@ -1767,13 +1765,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G14" s="1">
         <v>6</v>
@@ -1831,7 +1829,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -1843,7 +1841,7 @@
         <v>46</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1">
@@ -1855,7 +1853,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
@@ -1867,7 +1865,7 @@
         <v>42</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1">
@@ -1891,7 +1889,7 @@
         <v>46</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1">
@@ -1903,7 +1901,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
@@ -1915,7 +1913,7 @@
         <v>30</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1">
@@ -1939,7 +1937,7 @@
         <v>20</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1">
@@ -1963,9 +1961,9 @@
         <v>27</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G22" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="G22" s="20"/>
       <c r="H22" s="1">
         <v>1</v>
       </c>
@@ -1987,9 +1985,9 @@
         <v>16</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G23" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="G23" s="20"/>
       <c r="H23" s="1">
         <v>1</v>
       </c>
@@ -2061,9 +2059,9 @@
         <v>38</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="G26" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="G26" s="20"/>
       <c r="H26" s="1">
         <v>1</v>
       </c>
@@ -2073,21 +2071,23 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="G27" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="G27" s="1">
+        <v>5</v>
+      </c>
       <c r="H27" s="1">
         <v>1</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C28" s="1">
         <v>2</v>
@@ -2109,7 +2109,7 @@
         <v>5</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1">
@@ -2121,7 +2121,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C29" s="1">
         <v>3</v>
@@ -2147,7 +2147,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -2159,7 +2159,7 @@
         <v>40</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1">
@@ -2171,7 +2171,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C31" s="1">
         <v>5</v>
@@ -2208,33 +2208,36 @@
         <v>60</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H32" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="C33" s="1">
         <v>2</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G33" s="19"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H33" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35">
@@ -2245,14 +2248,14 @@
       <c r="E35" s="1"/>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2260,66 +2263,66 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
@@ -2420,33 +2423,32 @@
   <hyperlinks>
     <hyperlink ref="F32" r:id="rId1" display="QRE1113 THT" xr:uid="{C7467625-A286-468E-8A7E-1A7A39BDECC1}"/>
     <hyperlink ref="F3" r:id="rId2" display="0R" xr:uid="{C862754A-C382-43E8-A616-D2AF26643802}"/>
-    <hyperlink ref="I2" r:id="rId3" display="220R mouser" xr:uid="{C43AAB53-D2D0-4329-AD51-D4402ED84441}"/>
-    <hyperlink ref="F4" r:id="rId4" display="15R mouser" xr:uid="{DD575FCC-1415-4330-899B-C70DFF886B11}"/>
-    <hyperlink ref="F6" r:id="rId5" display="100R" xr:uid="{763E5EBB-5DD3-4781-B6D2-9F4C3D8344CC}"/>
-    <hyperlink ref="F5" r:id="rId6" display="10k mouser" xr:uid="{ED2B128C-C1AD-425C-8DC4-6214F339E204}"/>
-    <hyperlink ref="F30" r:id="rId7" xr:uid="{B596FF9F-B13C-40B2-A278-6278DE88A519}"/>
-    <hyperlink ref="F27" r:id="rId8" xr:uid="{3DE8E763-2485-4DF4-BCB1-A8CE5F2EC419}"/>
-    <hyperlink ref="F28" r:id="rId9" xr:uid="{019436FF-040E-4EB9-8335-60DF69292558}"/>
-    <hyperlink ref="F26" r:id="rId10" display="TSOP382. 38kHz" xr:uid="{37A8138D-E3CB-4172-AF64-8D059EB192A7}"/>
-    <hyperlink ref="F22" r:id="rId11" xr:uid="{7A7B8AF4-09CC-41E8-BA13-0E8B4DAA1724}"/>
-    <hyperlink ref="F23" r:id="rId12" xr:uid="{D071CBD8-5018-4961-9B17-F0BA82B3C326}"/>
-    <hyperlink ref="F21" r:id="rId13" display="USB C" xr:uid="{9DCBE1AD-73C2-4CF2-92FF-FAE0BDDC5F23}"/>
-    <hyperlink ref="F19" r:id="rId14" xr:uid="{132DDC0D-5C0A-439E-A3C6-C482F808FDEF}"/>
-    <hyperlink ref="F20" r:id="rId15" xr:uid="{FFF45319-FF1B-4F72-A21B-36978B113C9B}"/>
-    <hyperlink ref="F18" r:id="rId16" xr:uid="{AD263F34-F035-44E6-BCED-3EBC8E55851A}"/>
-    <hyperlink ref="F17" r:id="rId17" xr:uid="{98A91549-44BB-43DE-82FA-759E9467366D}"/>
-    <hyperlink ref="F14" r:id="rId18" xr:uid="{7D16F510-0609-4A66-8417-B59F678FC2DE}"/>
-    <hyperlink ref="F10" r:id="rId19" xr:uid="{371B25F1-527B-4E70-B1F2-2BE6606DACEC}"/>
-    <hyperlink ref="F9" r:id="rId20" xr:uid="{929D84F0-E88E-4810-B009-80FE3FED9A37}"/>
-    <hyperlink ref="F29" r:id="rId21" xr:uid="{F6DBEFD4-801F-4613-95B3-A24ABBB0EBF1}"/>
-    <hyperlink ref="F25" r:id="rId22" display="ESP32 S3 WROOM1" xr:uid="{C2CDD0EF-FB14-4038-9794-A39B66094845}"/>
-    <hyperlink ref="F24" r:id="rId23" display="ESD protekce" xr:uid="{FB3BE120-E60B-4E64-87B8-658CEE0AACB7}"/>
-    <hyperlink ref="F8" r:id="rId24" display="22nF, 50V, 0805, mouser, X7R" xr:uid="{EF920451-0FF1-4E22-859F-6B07FF0D02EB}"/>
-    <hyperlink ref="F11" r:id="rId25" xr:uid="{5E8D4022-209B-4A78-A839-B160D615305B}"/>
-    <hyperlink ref="F12" r:id="rId26" xr:uid="{1DB20B2F-C9D6-4E69-A2DD-D42E31B3A79C}"/>
-    <hyperlink ref="F13" r:id="rId27" xr:uid="{5954B20F-A14D-45B1-9EAC-29E97102D58C}"/>
-    <hyperlink ref="F2" r:id="rId28" xr:uid="{F272AEEB-1F6E-41CC-B9EE-A0FD0E5C470F}"/>
-    <hyperlink ref="F33" r:id="rId29" xr:uid="{6ABF2726-A5C3-4787-BAF7-20B3D754FCE4}"/>
+    <hyperlink ref="F4" r:id="rId3" display="15R mouser" xr:uid="{DD575FCC-1415-4330-899B-C70DFF886B11}"/>
+    <hyperlink ref="F6" r:id="rId4" display="100R" xr:uid="{763E5EBB-5DD3-4781-B6D2-9F4C3D8344CC}"/>
+    <hyperlink ref="F5" r:id="rId5" display="10k mouser" xr:uid="{ED2B128C-C1AD-425C-8DC4-6214F339E204}"/>
+    <hyperlink ref="F30" r:id="rId6" xr:uid="{B596FF9F-B13C-40B2-A278-6278DE88A519}"/>
+    <hyperlink ref="F27" r:id="rId7" xr:uid="{3DE8E763-2485-4DF4-BCB1-A8CE5F2EC419}"/>
+    <hyperlink ref="F28" r:id="rId8" xr:uid="{019436FF-040E-4EB9-8335-60DF69292558}"/>
+    <hyperlink ref="F26" r:id="rId9" display="TSOP382. 38kHz" xr:uid="{37A8138D-E3CB-4172-AF64-8D059EB192A7}"/>
+    <hyperlink ref="F22" r:id="rId10" xr:uid="{7A7B8AF4-09CC-41E8-BA13-0E8B4DAA1724}"/>
+    <hyperlink ref="F23" r:id="rId11" xr:uid="{D071CBD8-5018-4961-9B17-F0BA82B3C326}"/>
+    <hyperlink ref="F21" r:id="rId12" display="USB C" xr:uid="{9DCBE1AD-73C2-4CF2-92FF-FAE0BDDC5F23}"/>
+    <hyperlink ref="F19" r:id="rId13" xr:uid="{132DDC0D-5C0A-439E-A3C6-C482F808FDEF}"/>
+    <hyperlink ref="F20" r:id="rId14" xr:uid="{FFF45319-FF1B-4F72-A21B-36978B113C9B}"/>
+    <hyperlink ref="F18" r:id="rId15" xr:uid="{AD263F34-F035-44E6-BCED-3EBC8E55851A}"/>
+    <hyperlink ref="F17" r:id="rId16" xr:uid="{98A91549-44BB-43DE-82FA-759E9467366D}"/>
+    <hyperlink ref="F14" r:id="rId17" xr:uid="{7D16F510-0609-4A66-8417-B59F678FC2DE}"/>
+    <hyperlink ref="F10" r:id="rId18" xr:uid="{371B25F1-527B-4E70-B1F2-2BE6606DACEC}"/>
+    <hyperlink ref="F9" r:id="rId19" xr:uid="{929D84F0-E88E-4810-B009-80FE3FED9A37}"/>
+    <hyperlink ref="F29" r:id="rId20" xr:uid="{F6DBEFD4-801F-4613-95B3-A24ABBB0EBF1}"/>
+    <hyperlink ref="F25" r:id="rId21" display="ESP32 S3 WROOM1" xr:uid="{C2CDD0EF-FB14-4038-9794-A39B66094845}"/>
+    <hyperlink ref="F24" r:id="rId22" display="ESD protekce" xr:uid="{FB3BE120-E60B-4E64-87B8-658CEE0AACB7}"/>
+    <hyperlink ref="F8" r:id="rId23" display="22nF, 50V, 0805, mouser, X7R" xr:uid="{EF920451-0FF1-4E22-859F-6B07FF0D02EB}"/>
+    <hyperlink ref="F11" r:id="rId24" xr:uid="{5E8D4022-209B-4A78-A839-B160D615305B}"/>
+    <hyperlink ref="F12" r:id="rId25" xr:uid="{1DB20B2F-C9D6-4E69-A2DD-D42E31B3A79C}"/>
+    <hyperlink ref="F13" r:id="rId26" xr:uid="{5954B20F-A14D-45B1-9EAC-29E97102D58C}"/>
+    <hyperlink ref="F2" r:id="rId27" xr:uid="{F272AEEB-1F6E-41CC-B9EE-A0FD0E5C470F}"/>
+    <hyperlink ref="F33" r:id="rId28" xr:uid="{6ABF2726-A5C3-4787-BAF7-20B3D754FCE4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/- PCB -/SUMEC SMD-V2/bom/Complete BOM.xlsx
+++ b/- PCB -/SUMEC SMD-V2/bom/Complete BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\GitHub\RoboCop\- PCB -\SUMEC SMD-V2\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865C17A7-7A47-468C-AAB0-0985D24521F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9B437B-95F0-4A93-A1F5-33A296B88127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sumecBOM" sheetId="1" r:id="rId1"/>
@@ -362,9 +362,6 @@
     <t>Yellow LED, 20mA, 1.9V, 0805, mouser</t>
   </si>
   <si>
-    <t>Green LED, 20mA, 1.9V, mouser</t>
-  </si>
-  <si>
     <t>R3</t>
   </si>
   <si>
@@ -387,6 +384,9 @@
   </si>
   <si>
     <t>15 + 4 pujceno</t>
+  </si>
+  <si>
+    <t>Green-Yellow LED, 20mA, 1.9V, mouser</t>
   </si>
 </sst>
 </file>
@@ -1419,8 +1419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" zoomScale="77" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="77" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1467,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -1476,10 +1476,10 @@
         <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1">
@@ -1566,7 +1566,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -1747,7 +1747,7 @@
         <v>25</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1">
@@ -2208,7 +2208,7 @@
         <v>60</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H32" s="1">
         <v>3</v>
@@ -2220,13 +2220,13 @@
         <v>2</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G33" s="19"/>
       <c r="H33" s="1">

--- a/- PCB -/SUMEC SMD-V2/bom/Complete BOM.xlsx
+++ b/- PCB -/SUMEC SMD-V2/bom/Complete BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\GitHub\RoboCop\- PCB -\SUMEC SMD-V2\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9B437B-95F0-4A93-A1F5-33A296B88127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112C58A9-DAB3-488A-8BFE-82975BA1C0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="120">
   <si>
     <t>Id</t>
   </si>
@@ -383,17 +383,23 @@
     <t>CONNECTOR 1x3</t>
   </si>
   <si>
-    <t>15 + 4 pujceno</t>
-  </si>
-  <si>
     <t>Green-Yellow LED, 20mA, 1.9V, mouser</t>
+  </si>
+  <si>
+    <t>100?</t>
+  </si>
+  <si>
+    <t>50?</t>
+  </si>
+  <si>
+    <t>15 + 4 pujceno + 10 doma</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -579,6 +585,13 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="41">
     <fill>
@@ -985,7 +998,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1039,6 +1052,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1419,8 +1435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="77" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1481,7 +1497,9 @@
       <c r="F2" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1">
+        <v>20</v>
+      </c>
       <c r="H2" s="1">
         <v>1</v>
       </c>
@@ -1532,7 +1550,9 @@
       <c r="F4" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1">
+        <v>20</v>
+      </c>
       <c r="H4" s="1">
         <v>2</v>
       </c>
@@ -1556,7 +1576,9 @@
       <c r="F5" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1">
+        <v>20</v>
+      </c>
       <c r="H5" s="1">
         <v>4</v>
       </c>
@@ -1580,7 +1602,9 @@
       <c r="F6" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1">
+        <v>20</v>
+      </c>
       <c r="H6" s="1">
         <v>5</v>
       </c>
@@ -1626,7 +1650,9 @@
       <c r="F8" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1">
+        <v>20</v>
+      </c>
       <c r="H8" s="1">
         <v>2</v>
       </c>
@@ -1651,7 +1677,9 @@
       <c r="F9" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="H9" s="1">
         <v>8</v>
       </c>
@@ -1675,7 +1703,9 @@
       <c r="F10" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="H10" s="1">
         <v>9</v>
       </c>
@@ -1699,7 +1729,9 @@
       <c r="F11" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="13"/>
+      <c r="G11" s="21">
+        <v>10</v>
+      </c>
       <c r="H11" s="1">
         <v>1</v>
       </c>
@@ -1725,7 +1757,9 @@
       <c r="F12" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1">
+        <v>10</v>
+      </c>
       <c r="H12" s="1">
         <v>1</v>
       </c>
@@ -1747,9 +1781,11 @@
         <v>25</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="G13" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="G13" s="1">
+        <v>20</v>
+      </c>
       <c r="H13" s="1">
         <v>1</v>
       </c>
@@ -1843,7 +1879,9 @@
       <c r="F17" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1">
+        <v>4</v>
+      </c>
       <c r="H17" s="1">
         <v>1</v>
       </c>
@@ -1867,7 +1905,9 @@
       <c r="F18" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1">
+        <v>4</v>
+      </c>
       <c r="H18" s="1">
         <v>3</v>
       </c>
@@ -1891,7 +1931,9 @@
       <c r="F19" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1">
+        <v>4</v>
+      </c>
       <c r="H19" s="1">
         <v>1</v>
       </c>
@@ -1915,7 +1957,9 @@
       <c r="F20" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1">
+        <v>7</v>
+      </c>
       <c r="H20" s="1">
         <v>3</v>
       </c>
@@ -1939,7 +1983,9 @@
       <c r="F21" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1">
+        <v>6</v>
+      </c>
       <c r="H21" s="1">
         <v>1</v>
       </c>
@@ -1963,7 +2009,9 @@
       <c r="F22" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="20"/>
+      <c r="G22" s="20">
+        <v>3</v>
+      </c>
       <c r="H22" s="1">
         <v>1</v>
       </c>
@@ -1987,7 +2035,9 @@
       <c r="F23" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="20"/>
+      <c r="G23" s="20">
+        <v>3</v>
+      </c>
       <c r="H23" s="1">
         <v>1</v>
       </c>
@@ -2037,7 +2087,9 @@
       <c r="F25" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1">
+        <v>3</v>
+      </c>
       <c r="H25" s="1">
         <v>1</v>
       </c>
@@ -2111,7 +2163,9 @@
       <c r="F28" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="1"/>
+      <c r="G28" s="1">
+        <v>5</v>
+      </c>
       <c r="H28" s="1">
         <v>2</v>
       </c>
@@ -2136,7 +2190,7 @@
         <v>63</v>
       </c>
       <c r="G29" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H29" s="1">
         <v>3</v>
@@ -2208,7 +2262,7 @@
         <v>60</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H32" s="1">
         <v>3</v>
@@ -2451,5 +2505,6 @@
     <hyperlink ref="F33" r:id="rId28" xr:uid="{6ABF2726-A5C3-4787-BAF7-20B3D754FCE4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>